--- a/Python/Results Summary/Results_EI_NetZero_0_TrueREFERENCEreference.xlsx
+++ b/Python/Results Summary/Results_EI_NetZero_0_TrueREFERENCEreference.xlsx
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>9488.28319020852</v>
+        <v>942.8400275269606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9488.28319020852</v>
+        <v>942.8400275269606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>109951.0642770082</v>
+        <v>152610.3307083945</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>109951.0642770082</v>
+        <v>152610.3307083945</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>119439.3474672167</v>
+        <v>153553.1707359214</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>119439.3474672167</v>
+        <v>153553.1707359214</v>
       </c>
     </row>
   </sheetData>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>89259.15328638977</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>89259.15328638977</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5793.76122442901</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5793.76122442901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>708150.457626007</v>
+        <v>956944.1027268033</v>
       </c>
       <c r="E6">
-        <v>708150.457626007</v>
+        <v>956944.1027268033</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>365647.4920618833</v>
+        <v>356006.5733960111</v>
       </c>
       <c r="E7">
-        <v>365647.4920618833</v>
+        <v>356006.5733960111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>111513.8179724958</v>
+        <v>94401.27381288703</v>
       </c>
       <c r="E8">
-        <v>111513.8179724958</v>
+        <v>94401.27381288703</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>41404.2297975563</v>
+        <v>209282.732207467</v>
       </c>
       <c r="E9">
-        <v>41404.2297975563</v>
+        <v>209282.732207467</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-2368.964139332274</v>
+        <v>-688.1737178490628</v>
       </c>
       <c r="E10">
-        <v>-2368.964139332274</v>
+        <v>-688.1737178490628</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>19199.97933516018</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19199.97933516018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>31072.79247759749</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>31072.79247759749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7255800000000004</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7255800000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1312.254976461853</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1312.254976461853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>611.8665551811511</v>
+        <v>0.002899999999999999</v>
       </c>
       <c r="E12">
-        <v>611.8665551811511</v>
+        <v>0.002899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>136.1987000000001</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>136.1987000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8735.731010218307</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8735.731010218307</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1571.204259461152</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1571.204259461152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>76946.03378840901</v>
+        <v>105744.3161917229</v>
       </c>
       <c r="E6">
-        <v>76946.03378840901</v>
+        <v>105744.3161917229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>27201.00064265363</v>
+        <v>28623.56504880282</v>
       </c>
       <c r="E7">
-        <v>27201.00064265363</v>
+        <v>28623.56504880282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8031.890354083075</v>
+        <v>7378.913140320299</v>
       </c>
       <c r="E8">
-        <v>8031.890354083075</v>
+        <v>7378.913140320299</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9194.272090373739</v>
+        <v>40588.138221676</v>
       </c>
       <c r="E9">
-        <v>9194.272090373739</v>
+        <v>40588.138221676</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-604.0858555297308</v>
+        <v>-209.0072163779585</v>
       </c>
       <c r="E10">
-        <v>-604.0858555297308</v>
+        <v>-209.0072163779585</v>
       </c>
     </row>
   </sheetData>
